--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999994924755</v>
+        <v>0.9999999999995148</v>
       </c>
       <c r="E2">
-        <v>0.9999999994924755</v>
+        <v>0.9999999999995148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0009636036898256112</v>
+        <v>0.0007850321257758342</v>
       </c>
       <c r="E3">
-        <v>0.0009636036898256112</v>
+        <v>0.0007850321257758342</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.009348175135903834</v>
+        <v>0.0001597317164635983</v>
       </c>
       <c r="E4">
-        <v>0.009348175135903834</v>
+        <v>0.0001597317164635983</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.726647489954184E-16</v>
+        <v>7.520521803276738E-16</v>
       </c>
       <c r="E5">
-        <v>7.726647489954184E-16</v>
+        <v>7.520521803276738E-16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999405993</v>
+        <v>0.8954685934402525</v>
       </c>
       <c r="E6">
-        <v>0.9999999999405993</v>
+        <v>0.8954685934402525</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7.493091583251953</v>
+        <v>5.102246284484863</v>
       </c>
       <c r="G7">
         <v>0.6666666666666666</v>
